--- a/natmiOut/OldD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,184 +531,184 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22393020235149</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H2">
-        <v>1.22393020235149</v>
+        <v>5.419084</v>
       </c>
       <c r="I2">
-        <v>0.1085728502640161</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J2">
-        <v>0.1085728502640161</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.32718508640803</v>
+        <v>0.01333166666666667</v>
       </c>
       <c r="N2">
-        <v>3.32718508640803</v>
+        <v>0.039995</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003064994513357115</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.004188487926012003</v>
       </c>
       <c r="Q2">
-        <v>4.07224231606824</v>
+        <v>0.02408180717555556</v>
       </c>
       <c r="R2">
-        <v>4.07224231606824</v>
+        <v>0.21673626458</v>
       </c>
       <c r="S2">
-        <v>0.1085728502640161</v>
+        <v>0.000440832218021948</v>
       </c>
       <c r="T2">
-        <v>0.1085728502640161</v>
+        <v>0.0006480483177536571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90713105438732</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H3">
-        <v>1.90713105438732</v>
+        <v>5.419084</v>
       </c>
       <c r="I3">
-        <v>0.1691784825670845</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J3">
-        <v>0.1691784825670845</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.32718508640803</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N3">
-        <v>3.32718508640803</v>
+        <v>2.031179</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1556582695498485</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2127158074026537</v>
       </c>
       <c r="Q3">
-        <v>6.345378001983113</v>
+        <v>1.223014402226222</v>
       </c>
       <c r="R3">
-        <v>6.345378001983113</v>
+        <v>11.007129620036</v>
       </c>
       <c r="S3">
-        <v>0.1691784825670845</v>
+        <v>0.02238802709762726</v>
       </c>
       <c r="T3">
-        <v>0.1691784825670845</v>
+        <v>0.03291166730857745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.49962964678115</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H4">
-        <v>2.49962964678115</v>
+        <v>5.419084</v>
       </c>
       <c r="I4">
-        <v>0.2217380654828605</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J4">
-        <v>0.2217380654828605</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.32718508640803</v>
+        <v>0.159092</v>
       </c>
       <c r="N4">
-        <v>3.32718508640803</v>
+        <v>0.477276</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03657578000642656</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04998286694275046</v>
       </c>
       <c r="Q4">
-        <v>8.316730482313615</v>
+        <v>0.2873776372426666</v>
       </c>
       <c r="R4">
-        <v>8.316730482313615</v>
+        <v>2.586398735184</v>
       </c>
       <c r="S4">
-        <v>0.2217380654828605</v>
+        <v>0.005260623520156099</v>
       </c>
       <c r="T4">
-        <v>0.2217380654828605</v>
+        <v>0.007733414399404786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,114 +720,1044 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.0602624152357</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H5">
-        <v>3.0602624152357</v>
+        <v>5.419084</v>
       </c>
       <c r="I5">
-        <v>0.2714708831758714</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J5">
-        <v>0.2714708831758714</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.32718508640803</v>
+        <v>3.500171</v>
       </c>
       <c r="N5">
-        <v>3.32718508640803</v>
+        <v>7.000342</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8047009559303677</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7331128377285839</v>
       </c>
       <c r="Q5">
-        <v>10.18205946846724</v>
+        <v>6.322573554454666</v>
       </c>
       <c r="R5">
-        <v>10.18205946846724</v>
+        <v>37.935441326728</v>
       </c>
       <c r="S5">
-        <v>0.2714708831758714</v>
+        <v>0.1157385782262357</v>
       </c>
       <c r="T5">
-        <v>0.2714708831758714</v>
+        <v>0.1134281749418745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.026462666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.079388</v>
+      </c>
+      <c r="I6">
+        <v>0.1613532081222288</v>
+      </c>
+      <c r="J6">
+        <v>0.1735737709111781</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.039995</v>
+      </c>
+      <c r="O6">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P6">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q6">
+        <v>0.02701612478444445</v>
+      </c>
+      <c r="R6">
+        <v>0.24314512306</v>
+      </c>
+      <c r="S6">
+        <v>0.0004945466976071999</v>
+      </c>
+      <c r="T6">
+        <v>0.0007270116437338432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.026462666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.079388</v>
+      </c>
+      <c r="I7">
+        <v>0.1613532081222288</v>
+      </c>
+      <c r="J7">
+        <v>0.1735737709111781</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.031179</v>
+      </c>
+      <c r="O7">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P7">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q7">
+        <v>1.372036137605778</v>
+      </c>
+      <c r="R7">
+        <v>12.348325238452</v>
+      </c>
+      <c r="S7">
+        <v>0.02511596116262269</v>
+      </c>
+      <c r="T7">
+        <v>0.0369218848232945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.026462666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.079388</v>
+      </c>
+      <c r="I8">
+        <v>0.1613532081222288</v>
+      </c>
+      <c r="J8">
+        <v>0.1735737709111781</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.159092</v>
+      </c>
+      <c r="N8">
+        <v>0.477276</v>
+      </c>
+      <c r="O8">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P8">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q8">
+        <v>0.3223939985653333</v>
+      </c>
+      <c r="R8">
+        <v>2.901545987088</v>
+      </c>
+      <c r="S8">
+        <v>0.005901619443609798</v>
+      </c>
+      <c r="T8">
+        <v>0.008675714696204867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.026462666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.079388</v>
+      </c>
+      <c r="I9">
+        <v>0.1613532081222288</v>
+      </c>
+      <c r="J9">
+        <v>0.1735737709111781</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.500171</v>
+      </c>
+      <c r="N9">
+        <v>7.000342</v>
+      </c>
+      <c r="O9">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P9">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q9">
+        <v>7.092965858449333</v>
+      </c>
+      <c r="R9">
+        <v>42.55779515069599</v>
+      </c>
+      <c r="S9">
+        <v>0.129841080818389</v>
+      </c>
+      <c r="T9">
+        <v>0.127249159747945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.997459000000001</v>
+      </c>
+      <c r="H10">
+        <v>8.992377000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2386669312099414</v>
+      </c>
+      <c r="J10">
+        <v>0.2567430776494193</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.039995</v>
+      </c>
+      <c r="O10">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P10">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q10">
+        <v>0.03996112423500001</v>
+      </c>
+      <c r="R10">
+        <v>0.3596501181150001</v>
+      </c>
+      <c r="S10">
+        <v>0.0007315128346782504</v>
+      </c>
+      <c r="T10">
+        <v>0.001075365280821755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.997459000000001</v>
+      </c>
+      <c r="H11">
+        <v>8.992377000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2386669312099414</v>
+      </c>
+      <c r="J11">
+        <v>0.2567430776494193</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.031179</v>
+      </c>
+      <c r="O11">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P11">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q11">
+        <v>2.029458591387</v>
+      </c>
+      <c r="R11">
+        <v>18.265127322483</v>
+      </c>
+      <c r="S11">
+        <v>0.03715048151091221</v>
+      </c>
+      <c r="T11">
+        <v>0.05461331105723843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.997459000000001</v>
+      </c>
+      <c r="H12">
+        <v>8.992377000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2386669312099414</v>
+      </c>
+      <c r="J12">
+        <v>0.2567430776494193</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.159092</v>
+      </c>
+      <c r="N12">
+        <v>0.477276</v>
+      </c>
+      <c r="O12">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P12">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q12">
+        <v>0.476871747228</v>
+      </c>
+      <c r="R12">
+        <v>4.291845725052</v>
+      </c>
+      <c r="S12">
+        <v>0.008729429170743756</v>
+      </c>
+      <c r="T12">
+        <v>0.01283275508862317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.58194040536841</v>
-      </c>
-      <c r="H6">
-        <v>2.58194040536841</v>
-      </c>
-      <c r="I6">
-        <v>0.2290397185101674</v>
-      </c>
-      <c r="J6">
-        <v>0.2290397185101674</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.32718508640803</v>
-      </c>
-      <c r="N6">
-        <v>3.32718508640803</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>8.590593610736077</v>
-      </c>
-      <c r="R6">
-        <v>8.590593610736077</v>
-      </c>
-      <c r="S6">
-        <v>0.2290397185101674</v>
-      </c>
-      <c r="T6">
-        <v>0.2290397185101674</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.997459000000001</v>
+      </c>
+      <c r="H13">
+        <v>8.992377000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2386669312099414</v>
+      </c>
+      <c r="J13">
+        <v>0.2567430776494193</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.500171</v>
+      </c>
+      <c r="N13">
+        <v>7.000342</v>
+      </c>
+      <c r="O13">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P13">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q13">
+        <v>10.491619065489</v>
+      </c>
+      <c r="R13">
+        <v>62.94971439293401</v>
+      </c>
+      <c r="S13">
+        <v>0.1920555076936072</v>
+      </c>
+      <c r="T13">
+        <v>0.1882216462227359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.076181333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.228543999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2449350462081291</v>
+      </c>
+      <c r="J14">
+        <v>0.2634859268893066</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.039995</v>
+      </c>
+      <c r="O14">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P14">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q14">
+        <v>0.04101062414222222</v>
+      </c>
+      <c r="R14">
+        <v>0.36909561728</v>
+      </c>
+      <c r="S14">
+        <v>0.000750724572756787</v>
+      </c>
+      <c r="T14">
+        <v>0.001103607623449942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.076181333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.228543999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2449350462081291</v>
+      </c>
+      <c r="J15">
+        <v>0.2634859268893066</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.031179</v>
+      </c>
+      <c r="O15">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P15">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q15">
+        <v>2.082758308152889</v>
+      </c>
+      <c r="R15">
+        <v>18.744824773376</v>
+      </c>
+      <c r="S15">
+        <v>0.03812616544486955</v>
+      </c>
+      <c r="T15">
+        <v>0.05604762167749542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.076181333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.228543999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2449350462081291</v>
+      </c>
+      <c r="J16">
+        <v>0.2634859268893066</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.159092</v>
+      </c>
+      <c r="N16">
+        <v>0.477276</v>
+      </c>
+      <c r="O16">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P16">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q16">
+        <v>0.4893958406826666</v>
+      </c>
+      <c r="R16">
+        <v>4.404562566144</v>
+      </c>
+      <c r="S16">
+        <v>0.008958690365972452</v>
+      </c>
+      <c r="T16">
+        <v>0.01316978202499549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.076181333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.228543999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2449350462081291</v>
+      </c>
+      <c r="J17">
+        <v>0.2634859268893066</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.500171</v>
+      </c>
+      <c r="N17">
+        <v>7.000342</v>
+      </c>
+      <c r="O17">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P17">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q17">
+        <v>10.76716069367466</v>
+      </c>
+      <c r="R17">
+        <v>64.602964162048</v>
+      </c>
+      <c r="S17">
+        <v>0.1970994658245303</v>
+      </c>
+      <c r="T17">
+        <v>0.1931649155633657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.6527075</v>
+      </c>
+      <c r="H18">
+        <v>5.305415</v>
+      </c>
+      <c r="I18">
+        <v>0.2112167533976597</v>
+      </c>
+      <c r="J18">
+        <v>0.1514759195824857</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.039995</v>
+      </c>
+      <c r="O18">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P18">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q18">
+        <v>0.03536501215416667</v>
+      </c>
+      <c r="R18">
+        <v>0.212190072925</v>
+      </c>
+      <c r="S18">
+        <v>0.0006473781902929297</v>
+      </c>
+      <c r="T18">
+        <v>0.0006344550602528063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.6527075</v>
+      </c>
+      <c r="H19">
+        <v>5.305415</v>
+      </c>
+      <c r="I19">
+        <v>0.2112167533976597</v>
+      </c>
+      <c r="J19">
+        <v>0.1514759195824857</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.031179</v>
+      </c>
+      <c r="O19">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P19">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q19">
+        <v>1.796041255714167</v>
+      </c>
+      <c r="R19">
+        <v>10.776247534285</v>
+      </c>
+      <c r="S19">
+        <v>0.03287763433381679</v>
+      </c>
+      <c r="T19">
+        <v>0.03222132253604788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.6527075</v>
+      </c>
+      <c r="H20">
+        <v>5.305415</v>
+      </c>
+      <c r="I20">
+        <v>0.2112167533976597</v>
+      </c>
+      <c r="J20">
+        <v>0.1514759195824857</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.159092</v>
+      </c>
+      <c r="N20">
+        <v>0.477276</v>
+      </c>
+      <c r="O20">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P20">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q20">
+        <v>0.42202454159</v>
+      </c>
+      <c r="R20">
+        <v>2.53214724954</v>
+      </c>
+      <c r="S20">
+        <v>0.007725417505944449</v>
+      </c>
+      <c r="T20">
+        <v>0.007571200733522149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.6527075</v>
+      </c>
+      <c r="H21">
+        <v>5.305415</v>
+      </c>
+      <c r="I21">
+        <v>0.2112167533976597</v>
+      </c>
+      <c r="J21">
+        <v>0.1514759195824857</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.500171</v>
+      </c>
+      <c r="N21">
+        <v>7.000342</v>
+      </c>
+      <c r="O21">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P21">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q21">
+        <v>9.2849298629825</v>
+      </c>
+      <c r="R21">
+        <v>37.13971945193</v>
+      </c>
+      <c r="S21">
+        <v>0.1699663233676055</v>
+      </c>
+      <c r="T21">
+        <v>0.1110489412526628</v>
       </c>
     </row>
   </sheetData>
